--- a/moving_average/.misc/performance_research.xlsx
+++ b/moving_average/.misc/performance_research.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annnt\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\test_cases\moving_average\.misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E8D176-F58D-41BC-9FA9-29E735D897F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8840CA25-20B8-4CF0-96C4-2E60C24BE76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4F54B2A0-B520-48CD-A747-DD767BDD8903}"/>
   </bookViews>
@@ -16,78 +16,30 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$F$6:$F$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$G$6:$G$10</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Лист1!$Q$6:$Q$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Лист1!$R$6:$R$10</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$M$6:$M$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$N$6:$N$10</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Лист1!$J$6:$J$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Лист1!$K$6:$K$10</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Лист1!$F$6:$F$10</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Лист1!$G$6:$G$10</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Лист1!$H$6:$H$10</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Лист1!$I$6:$I$10</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Лист1!$J$6:$J$10</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">Лист1!$K$6:$K$10</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Лист1!$F$6:$F$10</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Лист1!$G$6:$G$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$H$6:$H$10</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Лист1!$H$6:$H$10</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Лист1!$I$6:$I$10</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Лист1!$J$6:$J$10</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Лист1!$K$6:$K$10</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Лист1!$M$6:$M$10</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Лист1!$N$6:$N$10</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Лист1!$O$6:$O$10</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Лист1!$P$6:$P$10</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Лист1!$Q$6:$Q$10</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Лист1!$R$6:$R$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$I$6:$I$10</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Лист1!$F$6:$F$10</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Лист1!$G$6:$G$10</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Лист1!$H$6:$H$10</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Лист1!$I$6:$I$10</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Лист1!$J$6:$J$10</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Лист1!$K$6:$K$10</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Лист1!$F$6:$F$10</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Лист1!$G$6:$G$10</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Лист1!$H$6:$H$10</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Лист1!$I$6:$I$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$J$6:$J$10</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Лист1!$J$6:$J$10</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Лист1!$K$6:$K$10</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Лист1!$M$6:$M$10</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Лист1!$N$6:$N$10</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Лист1!$O$6:$O$10</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Лист1!$P$6:$P$10</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Лист1!$Q$6:$Q$10</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Лист1!$R$6:$R$10</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Лист1!$F$6:$F$10</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Лист1!$G$6:$G$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$K$6:$K$10</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Лист1!$H$6:$H$10</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Лист1!$I$6:$I$10</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Лист1!$J$6:$J$10</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Лист1!$K$6:$K$10</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Лист1!$M$6:$M$10</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Лист1!$N$6:$N$10</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Лист1!$O$6:$O$10</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Лист1!$P$6:$P$10</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Лист1!$Q$6:$Q$10</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Лист1!$R$6:$R$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Лист1!$M$6:$M$10</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Лист1!$F$6:$F$10</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Лист1!$G$6:$G$10</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Лист1!$H$6:$H$10</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Лист1!$I$6:$I$10</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Лист1!$J$6:$J$10</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Лист1!$K$6:$K$10</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Лист1!$M$6:$M$10</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Лист1!$N$6:$N$10</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Лист1!$O$6:$O$10</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Лист1!$P$6:$P$10</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Лист1!$N$6:$N$10</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Лист1!$Q$6:$Q$10</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Лист1!$R$6:$R$10</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Лист1!$O$6:$O$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Лист1!$P$6:$P$10</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Лист1!$M$6:$M$10</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Лист1!$N$6:$N$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$O$6:$O$10</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Лист1!$O$6:$O$10</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Лист1!$P$6:$P$10</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Лист1!$Q$6:$Q$10</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Лист1!$R$6:$R$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$P$6:$P$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$Q$6:$Q$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$R$6:$R$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Лист1!$F$6:$F$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Лист1!$G$6:$G$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Лист1!$H$6:$H$10</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Лист1!$I$6:$I$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -127,9 +79,6 @@
     <t>Windows 10 x64</t>
   </si>
   <si>
-    <t>Конфигурация персонального компьютера</t>
-  </si>
-  <si>
     <t>8Gb DDR4</t>
   </si>
   <si>
@@ -146,6 +95,9 @@
   </si>
   <si>
     <t>Размер окна</t>
+  </si>
+  <si>
+    <t>Конфигурация оборудования</t>
   </si>
 </sst>
 </file>
@@ -207,13 +159,7 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -222,6 +168,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,32 +197,32 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -324,6 +276,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BCE7E8FA-8C5A-4E07-BEC7-FE544D93405E}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -336,6 +289,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-F728-4F4A-A215-C644AA246A7C}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>8</cx:v>
             </cx:txData>
           </cx:tx>
@@ -347,6 +301,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-F728-4F4A-A215-C644AA246A7C}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>16</cx:v>
             </cx:txData>
           </cx:tx>
@@ -358,6 +313,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000003-F728-4F4A-A215-C644AA246A7C}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -369,6 +325,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000004-F728-4F4A-A215-C644AA246A7C}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>64</cx:v>
             </cx:txData>
           </cx:tx>
@@ -381,6 +338,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000005-F728-4F4A-A215-C644AA246A7C}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>128</cx:v>
             </cx:txData>
           </cx:tx>
@@ -495,32 +453,32 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -754,62 +712,62 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.60</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.66</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.61</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.62</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.68</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.69</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.64</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.70</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.71</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -849,6 +807,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BCE7E8FA-8C5A-4E07-BEC7-FE544D93405E}" formatIdx="0">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Float, 4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -861,6 +820,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-F728-4F4A-A215-C644AA246A7C}" formatIdx="1">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Double, 4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -872,6 +832,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-F212-414C-8E19-876A53971ACB}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Float, 8</cx:v>
             </cx:txData>
           </cx:tx>
@@ -883,6 +844,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-F212-414C-8E19-876A53971ACB}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Double, 8</cx:v>
             </cx:txData>
           </cx:tx>
@@ -894,6 +856,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-F212-414C-8E19-876A53971ACB}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Float, 16</cx:v>
             </cx:txData>
           </cx:tx>
@@ -905,6 +868,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000003-F212-414C-8E19-876A53971ACB}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Double, 16</cx:v>
             </cx:txData>
           </cx:tx>
@@ -916,6 +880,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000004-F212-414C-8E19-876A53971ACB}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Float, 32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -927,6 +892,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000005-F212-414C-8E19-876A53971ACB}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Double, 32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -938,6 +904,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000006-F212-414C-8E19-876A53971ACB}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Float, 64</cx:v>
             </cx:txData>
           </cx:tx>
@@ -949,6 +916,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000007-F212-414C-8E19-876A53971ACB}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Double, 64</cx:v>
             </cx:txData>
           </cx:tx>
@@ -960,6 +928,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000008-F212-414C-8E19-876A53971ACB}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Float, 128</cx:v>
             </cx:txData>
           </cx:tx>
@@ -971,6 +940,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000009-F212-414C-8E19-876A53971ACB}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Double, 128</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2794,8 +2764,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3929622" y="2285437"/>
-              <a:ext cx="5388093" cy="2880000"/>
+              <a:off x="3924859" y="2285437"/>
+              <a:ext cx="5400000" cy="2880000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2872,8 +2842,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9382684" y="2285437"/>
-              <a:ext cx="5388094" cy="2880000"/>
+              <a:off x="9392209" y="2285437"/>
+              <a:ext cx="5400000" cy="2880000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2913,8 +2883,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>785697</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>19556</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2951,7 +2921,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="3934385" y="5331056"/>
-              <a:ext cx="5388093" cy="2880000"/>
+              <a:ext cx="5388093" cy="3241444"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3283,9 +3253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A355194D-FA02-4CB6-8D06-D2E1E7F4FC7A}">
   <dimension ref="B2:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3300,358 +3268,358 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4">
+      <c r="E5" s="4"/>
+      <c r="F5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>8</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>16</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>32</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>64</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <v>128</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4">
+      <c r="L5" s="5"/>
+      <c r="M5" s="2">
         <v>4</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <v>8</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <v>16</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <v>32</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="2">
         <v>64</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="2">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>41545800</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>41327300</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>41558300</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>38402500</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>39803100</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>39361100</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>1</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>39518500</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <v>39684100</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>39736900</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <v>31711400</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="3">
         <v>39473400</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="3">
         <v>38208000</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>30844600</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>34206200</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>32862300</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>37349200</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>38396300</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>37976000</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <v>32781600</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <v>30497000</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>32829000</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="3">
         <v>26318100</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="3">
         <v>24618900</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="3">
         <v>30550600</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>30598100</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>26468700</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>34001300</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>33651800</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>33975800</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>25764600</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>28922900</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="3">
         <v>31112200</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>37841500</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
         <v>32575200</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="3">
         <v>37894000</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="3">
         <v>29196600</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>30624200</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>32350600</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>41684200</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>41250600</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>29950300</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>41682600</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>4</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>33326200</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="3">
         <v>36408100</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>38248700</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="3">
         <v>24862100</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="3">
         <v>36927100</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="3">
         <v>32189700</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>32369600</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>30246500</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>36197100</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>35517800</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>33754100</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>40213800</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>5</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="3">
         <v>30962200</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="3">
         <v>31135600</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>36066800</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="3">
         <v>37890600</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="3">
         <v>26499700</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="3">
         <v>37814900</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:R2"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="L3:R3"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:R4"/>
-    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/moving_average/.misc/performance_research.xlsx
+++ b/moving_average/.misc/performance_research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\test_cases\moving_average\.misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8840CA25-20B8-4CF0-96C4-2E60C24BE76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05E57AD-AD47-41FD-810F-7B8F9C2C8B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4F54B2A0-B520-48CD-A747-DD767BDD8903}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Операционная система</t>
   </si>
   <si>
-    <t>Intel Core i5-6200@2.3GHz</t>
-  </si>
-  <si>
     <t>Windows 10 x64</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Конфигурация оборудования</t>
+  </si>
+  <si>
+    <t>Intel Core i5-6200U@2.3GHz</t>
   </si>
 </sst>
 </file>
@@ -170,10 +170,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2920,8 +2920,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3934385" y="5331056"/>
-              <a:ext cx="5388093" cy="3241444"/>
+              <a:off x="3929622" y="5331056"/>
+              <a:ext cx="5400000" cy="3241444"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3268,89 +3268,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2">
@@ -3371,7 +3371,7 @@
       <c r="K5" s="2">
         <v>128</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="2">
         <v>4</v>
       </c>
